--- a/data/trans_dic/P17_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17_R2-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.1710453685666616</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1032285683629493</v>
+        <v>0.1032285683629492</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07556050010742019</v>
+        <v>0.0770598928706554</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1080633037560117</v>
+        <v>0.1078220312548051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.09462255524141548</v>
+        <v>0.0938967865342213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04513729675559271</v>
+        <v>0.05043960124882959</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1480679704330463</v>
+        <v>0.1488270265136401</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.170341335862679</v>
+        <v>0.1717635818311602</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1830689369428416</v>
+        <v>0.1792265440711346</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0788656390707602</v>
+        <v>0.07275853752947239</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1182488904805504</v>
+        <v>0.1176920316990096</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1469268488232778</v>
+        <v>0.1447198117395018</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1465313596500816</v>
+        <v>0.1465586672165326</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.07469996148394588</v>
+        <v>0.07170226137429936</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1266546392265383</v>
+        <v>0.1325531778434968</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1697573876545285</v>
+        <v>0.1739796001249211</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1628235005572868</v>
+        <v>0.1633913114155724</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1444088903924389</v>
+        <v>0.1472691554618838</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2179876982476633</v>
+        <v>0.215387098086882</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2482495122277611</v>
+        <v>0.2517772377695094</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.266693301891622</v>
+        <v>0.2627303303202991</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1758349910499039</v>
+        <v>0.1689565079317146</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1609270544789319</v>
+        <v>0.1603158338312979</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1945318209660373</v>
+        <v>0.1974734753452918</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1976753641586854</v>
+        <v>0.1989037353901459</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1444446801003413</v>
+        <v>0.1404356315268726</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1984441129025616</v>
+        <v>0.1975441517769976</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2277354683764438</v>
+        <v>0.227916551429303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2124726476849731</v>
+        <v>0.2131063809093798</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0863317960521004</v>
+        <v>0.08716641706540683</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3240558394927119</v>
+        <v>0.3241680659515133</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.3794734042870768</v>
+        <v>0.3814784277767517</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2600238199748956</v>
+        <v>0.2572776395029873</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2348313780069273</v>
+        <v>0.2345461576519597</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2672423930448929</v>
+        <v>0.2673726492484119</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.3086682161062604</v>
+        <v>0.3109365376279701</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2476762251823066</v>
+        <v>0.2490256671796822</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1690297969310365</v>
+        <v>0.1733908853844219</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2635102712783348</v>
+        <v>0.2650701384883424</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2918503621746834</v>
+        <v>0.293568358705167</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2868566651892834</v>
+        <v>0.2857540600117521</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1756475342453595</v>
+        <v>0.1746003973431773</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4070774066515906</v>
+        <v>0.3995495857351929</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4610114799325901</v>
+        <v>0.4627503770624287</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3361825245564097</v>
+        <v>0.3333371481623669</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3173548737277623</v>
+        <v>0.3189161750056973</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3157710527279968</v>
+        <v>0.3167177455363571</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3614705096775377</v>
+        <v>0.3643939639884682</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2988439430958799</v>
+        <v>0.2985408670610962</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2343257554581067</v>
+        <v>0.2354829216531089</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.3302216419295212</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.330537758684704</v>
+        <v>0.3305377586847041</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.3946369289181348</v>
@@ -969,7 +969,7 @@
         <v>0.2704341089806028</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.2693691591149983</v>
+        <v>0.2693691591149982</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2843727721639735</v>
+        <v>0.2812925671370793</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.3371709943496609</v>
+        <v>0.3406532634283018</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1804262507535683</v>
+        <v>0.1807699265877933</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1739660995058308</v>
+        <v>0.1749487822604328</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4245034382417596</v>
+        <v>0.4228195070283833</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4810341128287012</v>
+        <v>0.4797353514505329</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2952295801596597</v>
+        <v>0.2931683884546731</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2990221468797672</v>
+        <v>0.2961918633209245</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3700429220139222</v>
+        <v>0.3675133708498755</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.418973050781722</v>
+        <v>0.4184492764713721</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2462260513184779</v>
+        <v>0.2462093551895144</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2462214409711126</v>
+        <v>0.2460258772720455</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3574579725310741</v>
+        <v>0.3561196089954956</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.413682871452854</v>
+        <v>0.4151481042209496</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2457413952355736</v>
+        <v>0.2435319461008421</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2466752879490471</v>
+        <v>0.2459568083641095</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.5005415345423403</v>
+        <v>0.5001266301207288</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5547348861589558</v>
+        <v>0.5567639172923773</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3692706175115963</v>
+        <v>0.3666501575879595</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3633375916427526</v>
+        <v>0.3612014766491636</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4221704554459315</v>
+        <v>0.4202208536031908</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4749149702778231</v>
+        <v>0.4740785695758251</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2956856010848329</v>
+        <v>0.2967846647885982</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2943884125605499</v>
+        <v>0.2919273472785122</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2210392434001108</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2460321000441506</v>
+        <v>0.2460321000441505</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2872928884786518</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2091214955224391</v>
+        <v>0.2113546646154027</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2427581227119021</v>
+        <v>0.2448437995392153</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1339389202889633</v>
+        <v>0.1290191739591502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1568209939669756</v>
+        <v>0.1577078104195411</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.28392291675237</v>
+        <v>0.2834880027170424</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3194144454612853</v>
+        <v>0.3210949368531843</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1894387398357134</v>
+        <v>0.1890780342124072</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2211048126423798</v>
+        <v>0.2199215986193927</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2614174885858024</v>
+        <v>0.2608465979594229</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2963735617942365</v>
+        <v>0.2953036653621437</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.170292110070311</v>
+        <v>0.1681148454574214</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1998574108517268</v>
+        <v>0.1968883492171959</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2872930519032041</v>
+        <v>0.2912207034911478</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3173285142847485</v>
+        <v>0.322222419208802</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1950425201906099</v>
+        <v>0.1893553672754489</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.219613824582178</v>
+        <v>0.2249943312166083</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3671558252477449</v>
+        <v>0.3680479350207335</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4024335973918948</v>
+        <v>0.4057701823548449</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2554511467509065</v>
+        <v>0.2598987057064667</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2713715706498625</v>
+        <v>0.2708254109655133</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.317848879590407</v>
+        <v>0.3158309068821056</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3530430439771761</v>
+        <v>0.3479920250303295</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2141025121555338</v>
+        <v>0.2125470021185766</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2387971920806645</v>
+        <v>0.2376407418310901</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1924288313978643</v>
+        <v>0.195753162921831</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1750825459797523</v>
+        <v>0.1766087077546333</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1310504718736539</v>
+        <v>0.128928081420339</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.09068196217356235</v>
+        <v>0.09018470211922719</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2179054617720911</v>
+        <v>0.2186005820397534</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1986962465845262</v>
+        <v>0.2012787787406985</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1528277727407142</v>
+        <v>0.1546022866554927</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1449012729732605</v>
+        <v>0.1453096371336419</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2153112382571151</v>
+        <v>0.2206124751712054</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2019964361351904</v>
+        <v>0.1999590324475596</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1530141515873011</v>
+        <v>0.1505961561093848</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1241562864286295</v>
+        <v>0.1244540152848923</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2766989056101463</v>
+        <v>0.2764539383289086</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2577627420388435</v>
+        <v>0.2606930861747382</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2031477845145823</v>
+        <v>0.2011916117450286</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1418037157906809</v>
+        <v>0.1409189813970967</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.301361293490367</v>
+        <v>0.3066443142678338</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2833854133447212</v>
+        <v>0.2834795427869543</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2275990478085141</v>
+        <v>0.2334295016361675</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1948697037564741</v>
+        <v>0.1941695340445713</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2752943988940577</v>
+        <v>0.2795922172963147</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2624257228664605</v>
+        <v>0.2589084423780504</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.204426138175015</v>
+        <v>0.203529928678045</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1605283527619038</v>
+        <v>0.1593231203847469</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2041498680152978</v>
+        <v>0.2046645456003945</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1578131871754269</v>
+        <v>0.1564369293746515</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1315077900813782</v>
+        <v>0.1359543127553483</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1043862558738882</v>
+        <v>0.1054570320042398</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2127031934131094</v>
+        <v>0.21193702162585</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.172960857366326</v>
+        <v>0.1731276224033121</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1209893704345744</v>
+        <v>0.1189125986302633</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09530141229708501</v>
+        <v>0.09522389704008045</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2185554983859215</v>
+        <v>0.222167279150634</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1751246887783726</v>
+        <v>0.1761375557700844</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1389680647739951</v>
+        <v>0.1350933673919603</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1053980106856954</v>
+        <v>0.1042716393240668</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3036762902641944</v>
+        <v>0.300558721452631</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2513851812399389</v>
+        <v>0.2483198414898531</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2172832796590703</v>
+        <v>0.2181325912695831</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1645788885623918</v>
+        <v>0.1625965390781865</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2981369826821163</v>
+        <v>0.3033881044446625</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2612448686982742</v>
+        <v>0.2644198842472465</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1972348301278985</v>
+        <v>0.1978361645285752</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1434163864482957</v>
+        <v>0.1397149030146059</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2851300116966774</v>
+        <v>0.2873788825369812</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2398114046157889</v>
+        <v>0.2403574990016308</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1950105082910652</v>
+        <v>0.191185079186202</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1437466424847085</v>
+        <v>0.1428592631395469</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.1418838511150906</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.1329424067751739</v>
+        <v>0.1329424067751738</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.1525209453411337</v>
@@ -1501,7 +1501,7 @@
         <v>0.1154762045777096</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.06661144944259066</v>
+        <v>0.06661144944259065</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.1849557759892538</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1798069906400809</v>
+        <v>0.1845130122737626</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1251113979234429</v>
+        <v>0.1236702886509041</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1054544359228877</v>
+        <v>0.103814760184816</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1024074111921455</v>
+        <v>0.1012256080032551</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1167848108449971</v>
+        <v>0.1169525695483908</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1157035803394744</v>
+        <v>0.1151178425702976</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08240922281887444</v>
+        <v>0.07909869196260892</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.04996052075004601</v>
+        <v>0.0508530163024298</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1526073372860483</v>
+        <v>0.1527513017530614</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1273407750515458</v>
+        <v>0.1306777041678623</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.09873507262949066</v>
+        <v>0.09807407121264769</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.07749020509852426</v>
+        <v>0.0751496605365467</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2964648182357749</v>
+        <v>0.3018219692972273</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2265337408192414</v>
+        <v>0.2294754548906109</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.181295870612766</v>
+        <v>0.1818942670904167</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1691361586801325</v>
+        <v>0.1690706419449295</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1964398807792569</v>
+        <v>0.1975909201111981</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1869516184028391</v>
+        <v>0.1886116142554547</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1630829411856757</v>
+        <v>0.1557567052016244</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.08754315549029278</v>
+        <v>0.08498786439226359</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.218797004269554</v>
+        <v>0.2233026582295764</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1876006831104462</v>
+        <v>0.1893242503757472</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1561046693039737</v>
+        <v>0.1554081538301139</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.112239568657599</v>
+        <v>0.1123389942387972</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2209054684831939</v>
+        <v>0.2191141791591646</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2370380297271263</v>
+        <v>0.2392399992358359</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1687439895410556</v>
+        <v>0.1684329343424488</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1342447024746851</v>
+        <v>0.1332550997976604</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2924675709876742</v>
+        <v>0.2935226107439725</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3143281217290033</v>
+        <v>0.3146055158208376</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.2157015252801542</v>
+        <v>0.217082083715074</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.1892294598408788</v>
+        <v>0.1886639660748994</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2613607796828196</v>
+        <v>0.2613936706478213</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2815326896685631</v>
+        <v>0.2815125768653552</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1968977150083683</v>
+        <v>0.1967861642297065</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.1668896754331169</v>
+        <v>0.1670549882563795</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.2501282406842695</v>
+        <v>0.2502181726111911</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2689511661539403</v>
+        <v>0.2687936642030714</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1965631498631145</v>
+        <v>0.1957649811592314</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.1626605165857238</v>
+        <v>0.1615861505323511</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3248768697327278</v>
+        <v>0.324790131369305</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3464724725503265</v>
+        <v>0.3473887387000231</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2441419355532367</v>
+        <v>0.2448701180884446</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.213182609297781</v>
+        <v>0.2126647755040108</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2831256636917109</v>
+        <v>0.2833248280815198</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3030359294919824</v>
+        <v>0.3036487208804837</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.2161339542775668</v>
+        <v>0.2161133260893609</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.1846186326104662</v>
+        <v>0.1850787027935939</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37119</v>
+        <v>37856</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>48964</v>
+        <v>48855</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>39385</v>
+        <v>39083</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18407</v>
+        <v>20569</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>69220</v>
+        <v>69575</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>73106</v>
+        <v>73716</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>72450</v>
+        <v>70930</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>28590</v>
+        <v>26376</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>113370</v>
+        <v>112836</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>129630</v>
+        <v>127683</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>118982</v>
+        <v>119004</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>57542</v>
+        <v>55233</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>62219</v>
+        <v>65117</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>76918</v>
+        <v>78831</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>67772</v>
+        <v>68009</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58889</v>
+        <v>60055</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>101907</v>
+        <v>100691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>106542</v>
+        <v>108056</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>105545</v>
+        <v>103977</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>63742</v>
+        <v>61249</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>154287</v>
+        <v>153701</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>171631</v>
+        <v>174226</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>160510</v>
+        <v>161507</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>111266</v>
+        <v>108178</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>145304</v>
+        <v>144645</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>156474</v>
+        <v>156598</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>125242</v>
+        <v>125616</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>41171</v>
+        <v>41569</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>202695</v>
+        <v>202765</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>231207</v>
+        <v>232428</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>145787</v>
+        <v>144247</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>117266</v>
+        <v>117124</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>362838</v>
+        <v>363015</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>400148</v>
+        <v>403089</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>284856</v>
+        <v>286408</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>165016</v>
+        <v>169274</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>192947</v>
+        <v>194089</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>200527</v>
+        <v>201707</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>169088</v>
+        <v>168438</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>83765</v>
+        <v>83265</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>254624</v>
+        <v>249916</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>280886</v>
+        <v>281946</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>188486</v>
+        <v>186891</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>158476</v>
+        <v>159255</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>428726</v>
+        <v>430011</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>468600</v>
+        <v>472389</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>343705</v>
+        <v>343357</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>228761</v>
+        <v>229891</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>181389</v>
+        <v>179424</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>229904</v>
+        <v>232279</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>120723</v>
+        <v>120953</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>107263</v>
+        <v>107869</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>292799</v>
+        <v>291637</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>341943</v>
+        <v>341020</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>193780</v>
+        <v>192427</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>185587</v>
+        <v>183831</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>491269</v>
+        <v>487911</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>583509</v>
+        <v>582779</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>326365</v>
+        <v>326342</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>304631</v>
+        <v>304389</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>228007</v>
+        <v>227153</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>282075</v>
+        <v>283074</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>164425</v>
+        <v>162946</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>152094</v>
+        <v>151651</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>345246</v>
+        <v>344959</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>394333</v>
+        <v>395776</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>242379</v>
+        <v>240659</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>225504</v>
+        <v>224179</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>560473</v>
+        <v>557885</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>661420</v>
+        <v>660255</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>391922</v>
+        <v>393378</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>364224</v>
+        <v>361180</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>108210</v>
+        <v>109366</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>149203</v>
+        <v>150485</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>86531</v>
+        <v>83353</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>109331</v>
+        <v>109949</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>146403</v>
+        <v>146178</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>196456</v>
+        <v>197489</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>122369</v>
+        <v>122136</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>162362</v>
+        <v>161493</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>270069</v>
+        <v>269479</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>364440</v>
+        <v>363125</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>220018</v>
+        <v>217205</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>286094</v>
+        <v>281844</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>148660</v>
+        <v>150692</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>195035</v>
+        <v>198043</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>126007</v>
+        <v>122333</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>153109</v>
+        <v>156860</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>189321</v>
+        <v>189781</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>247516</v>
+        <v>249569</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>165010</v>
+        <v>167883</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>199274</v>
+        <v>198873</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>328367</v>
+        <v>326283</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>434125</v>
+        <v>427914</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>276622</v>
+        <v>274612</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>341837</v>
+        <v>340181</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>74257</v>
+        <v>75540</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>75000</v>
+        <v>75654</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>62176</v>
+        <v>61169</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>54987</v>
+        <v>54685</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>87818</v>
+        <v>88098</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>88976</v>
+        <v>90133</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>75762</v>
+        <v>76641</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>87773</v>
+        <v>88021</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>169860</v>
+        <v>174042</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>176983</v>
+        <v>175198</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>148451</v>
+        <v>146105</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>150491</v>
+        <v>150852</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>106776</v>
+        <v>106681</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>110418</v>
+        <v>111673</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>96382</v>
+        <v>95454</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>85985</v>
+        <v>85449</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>121452</v>
+        <v>123581</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>126900</v>
+        <v>126942</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>112828</v>
+        <v>115718</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>118041</v>
+        <v>117617</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>217181</v>
+        <v>220571</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>229930</v>
+        <v>226848</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>198330</v>
+        <v>197460</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>194579</v>
+        <v>193118</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>59731</v>
+        <v>59881</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>48888</v>
+        <v>48462</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>43825</v>
+        <v>45307</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>42494</v>
+        <v>42929</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>72745</v>
+        <v>72483</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>61227</v>
+        <v>61286</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>45588</v>
+        <v>44805</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>41729</v>
+        <v>41695</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>138692</v>
+        <v>140984</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>116245</v>
+        <v>116917</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>98674</v>
+        <v>95923</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>89055</v>
+        <v>88104</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>88851</v>
+        <v>87938</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>77876</v>
+        <v>76926</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>72411</v>
+        <v>72694</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>66997</v>
+        <v>66190</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>101963</v>
+        <v>103759</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>92480</v>
+        <v>93604</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>74317</v>
+        <v>74543</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>62797</v>
+        <v>61176</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>180939</v>
+        <v>182366</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>159182</v>
+        <v>159545</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>138467</v>
+        <v>135750</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>121458</v>
+        <v>120708</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>37738</v>
+        <v>38726</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>31259</v>
+        <v>30899</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>27102</v>
+        <v>26680</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>31669</v>
+        <v>31304</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>38995</v>
+        <v>39051</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>45006</v>
+        <v>44778</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>32978</v>
+        <v>31653</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>23212</v>
+        <v>23627</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>82986</v>
+        <v>83065</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>81349</v>
+        <v>83481</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>64885</v>
+        <v>64451</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>59966</v>
+        <v>58155</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>62223</v>
+        <v>63347</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>56600</v>
+        <v>57335</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>46593</v>
+        <v>46746</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>52305</v>
+        <v>52285</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>65593</v>
+        <v>65977</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>72720</v>
+        <v>73366</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>65261</v>
+        <v>62329</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>40673</v>
+        <v>39486</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>118980</v>
+        <v>121430</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>119845</v>
+        <v>120946</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>102587</v>
+        <v>102129</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>86857</v>
+        <v>86934</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>721727</v>
+        <v>715875</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>811779</v>
+        <v>819320</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>571287</v>
+        <v>570234</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>472693</v>
+        <v>469208</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>987748</v>
+        <v>991311</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1117477</v>
+        <v>1118463</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>761738</v>
+        <v>766613</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>704891</v>
+        <v>702785</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1736591</v>
+        <v>1736810</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1965044</v>
+        <v>1964903</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1361935</v>
+        <v>1361163</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1209314</v>
+        <v>1210512</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>817202</v>
+        <v>817496</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>921071</v>
+        <v>920532</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>665469</v>
+        <v>662767</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>572748</v>
+        <v>568966</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1097203</v>
+        <v>1096910</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1231754</v>
+        <v>1235012</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>862173</v>
+        <v>864745</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>794118</v>
+        <v>792189</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1881206</v>
+        <v>1882529</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2115132</v>
+        <v>2119409</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>1494991</v>
+        <v>1494849</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1337781</v>
+        <v>1341115</v>
       </c>
     </row>
     <row r="36">
